--- a/biology/Médecine/Rusk_Institute_of_Rehabilitation_Medicine/Rusk_Institute_of_Rehabilitation_Medicine.xlsx
+++ b/biology/Médecine/Rusk_Institute_of_Rehabilitation_Medicine/Rusk_Institute_of_Rehabilitation_Medicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Rusk Institute of Rehabilitation Medicine (Institut Rusk pour la médecine de rééducation), situé au no 400 de la 34e rue Est de l'arrondissement de Manhattan à New York, est une composante du centre médical de l'Université de New York qui est sous la responsabilité administrative du Département de médecine physique et de réadaptation de la New York University School of Medicine.
